--- a/Code/Results/Cases/Case_2_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8707071846955898</v>
+        <v>0.283596088079122</v>
       </c>
       <c r="C2">
-        <v>0.1326793031228846</v>
+        <v>0.04750807013593317</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.03270077097838</v>
+        <v>0.7626029043482419</v>
       </c>
       <c r="F2">
-        <v>1.799203358455884</v>
+        <v>2.100123961954324</v>
       </c>
       <c r="G2">
-        <v>0.1729516690337078</v>
+        <v>0.3384098322087894</v>
       </c>
       <c r="H2">
-        <v>0.1894754772938541</v>
+        <v>0.5193485153305204</v>
       </c>
       <c r="I2">
-        <v>0.1472737416973064</v>
+        <v>0.3860694594142551</v>
       </c>
       <c r="J2">
-        <v>0.01363653066492532</v>
+        <v>0.03217290880991897</v>
       </c>
       <c r="K2">
-        <v>0.933275323086292</v>
+        <v>0.2896375603817773</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6531369869607104</v>
+        <v>1.134550080575771</v>
       </c>
       <c r="O2">
-        <v>0.7126936773708081</v>
+        <v>1.650157203335866</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7595148765128954</v>
+        <v>0.2489195046054533</v>
       </c>
       <c r="C3">
-        <v>0.1181260055734299</v>
+        <v>0.04283765755388913</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9059878461140443</v>
+        <v>0.7331989198385997</v>
       </c>
       <c r="F3">
-        <v>1.624014211491087</v>
+        <v>2.070717013394471</v>
       </c>
       <c r="G3">
-        <v>0.170331335757524</v>
+        <v>0.3413539821906468</v>
       </c>
       <c r="H3">
-        <v>0.1932502684174153</v>
+        <v>0.5238190168285541</v>
       </c>
       <c r="I3">
-        <v>0.1534568060163171</v>
+        <v>0.3909906325850141</v>
       </c>
       <c r="J3">
-        <v>0.01371136569239972</v>
+        <v>0.03248577531753405</v>
       </c>
       <c r="K3">
-        <v>0.8163318696788338</v>
+        <v>0.2528093121956942</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6703044458640903</v>
+        <v>1.142952505837698</v>
       </c>
       <c r="O3">
-        <v>0.7147446492743796</v>
+        <v>1.665554202443033</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6911820151250936</v>
+        <v>0.2275817205730561</v>
       </c>
       <c r="C4">
-        <v>0.1091788906565796</v>
+        <v>0.03995203726985608</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8292660445970341</v>
+        <v>0.715530698613378</v>
       </c>
       <c r="F4">
-        <v>1.519277503764656</v>
+        <v>2.053897623029272</v>
       </c>
       <c r="G4">
-        <v>0.169262221510067</v>
+        <v>0.3434120902637616</v>
       </c>
       <c r="H4">
-        <v>0.1959193876070486</v>
+        <v>0.5267800823144739</v>
       </c>
       <c r="I4">
-        <v>0.1576495385620476</v>
+        <v>0.3942256303655753</v>
       </c>
       <c r="J4">
-        <v>0.01379464947493503</v>
+        <v>0.03269701065143948</v>
       </c>
       <c r="K4">
-        <v>0.7444461136768012</v>
+        <v>0.2301202447741559</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6815892200307729</v>
+        <v>1.148494373019808</v>
       </c>
       <c r="O4">
-        <v>0.7178770284242972</v>
+        <v>1.675984465236382</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6633148871938488</v>
+        <v>0.2188753903838005</v>
       </c>
       <c r="C5">
-        <v>0.105529022358354</v>
+        <v>0.03877166957762768</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7982439361378937</v>
+        <v>0.7084277361718279</v>
       </c>
       <c r="F5">
-        <v>1.477252149791951</v>
+        <v>2.047354286775615</v>
       </c>
       <c r="G5">
-        <v>0.1689554149738086</v>
+        <v>0.3443136614866802</v>
       </c>
       <c r="H5">
-        <v>0.1970925141105084</v>
+        <v>0.5280411194799655</v>
       </c>
       <c r="I5">
-        <v>0.1594541875037603</v>
+        <v>0.3955975457973313</v>
       </c>
       <c r="J5">
-        <v>0.01383754557843098</v>
+        <v>0.03278789822358164</v>
       </c>
       <c r="K5">
-        <v>0.7151250964641918</v>
+        <v>0.2208556722882093</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6863703454487329</v>
+        <v>1.15084907533182</v>
       </c>
       <c r="O5">
-        <v>0.7196038145114727</v>
+        <v>1.680480278157845</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6586861463409832</v>
+        <v>0.21742906395761</v>
       </c>
       <c r="C6">
-        <v>0.1049227044291001</v>
+        <v>0.03857540330402287</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7931065790525338</v>
+        <v>0.7072541501935063</v>
       </c>
       <c r="F6">
-        <v>1.470311899579173</v>
+        <v>2.046286529208857</v>
       </c>
       <c r="G6">
-        <v>0.1689120583354224</v>
+        <v>0.3444671616866444</v>
       </c>
       <c r="H6">
-        <v>0.1972923883294868</v>
+        <v>0.5282537988025169</v>
       </c>
       <c r="I6">
-        <v>0.1597595490996344</v>
+        <v>0.3958285894659639</v>
       </c>
       <c r="J6">
-        <v>0.01384519724101452</v>
+        <v>0.03280328027920909</v>
       </c>
       <c r="K6">
-        <v>0.710254555812412</v>
+        <v>0.2193161921047562</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6871751399569703</v>
+        <v>1.151245893996965</v>
       </c>
       <c r="O6">
-        <v>0.7199171570606495</v>
+        <v>1.681241621752861</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6908062813933782</v>
+        <v>0.2274643477257143</v>
       </c>
       <c r="C7">
-        <v>0.1091296840959473</v>
+        <v>0.03993613636667703</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8288467241981579</v>
+        <v>0.7154345129945625</v>
       </c>
       <c r="F7">
-        <v>1.518708151841864</v>
+        <v>2.053808119623113</v>
       </c>
       <c r="G7">
-        <v>0.1692575708812996</v>
+        <v>0.343423994703663</v>
       </c>
       <c r="H7">
-        <v>0.1959348666223875</v>
+        <v>0.526796868892653</v>
       </c>
       <c r="I7">
-        <v>0.1576734922960696</v>
+        <v>0.3942439153979986</v>
       </c>
       <c r="J7">
-        <v>0.01379519227310588</v>
+        <v>0.03269821693293729</v>
       </c>
       <c r="K7">
-        <v>0.7440507975737063</v>
+        <v>0.2299953739826606</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6816529669507929</v>
+        <v>1.148525739118654</v>
       </c>
       <c r="O7">
-        <v>0.7178985197966341</v>
+        <v>1.676044103926856</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8323769847309279</v>
+        <v>0.2716495524542495</v>
       </c>
       <c r="C8">
-        <v>0.1276630511948866</v>
+        <v>0.04590147830609226</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9887678272045122</v>
+        <v>0.7523842559941158</v>
       </c>
       <c r="F8">
-        <v>1.738176003538072</v>
+        <v>2.089727624898828</v>
       </c>
       <c r="G8">
-        <v>0.1719319152576375</v>
+        <v>0.339372954736362</v>
       </c>
       <c r="H8">
-        <v>0.1907022976574666</v>
+        <v>0.5208450947764049</v>
       </c>
       <c r="I8">
-        <v>0.1493212094399787</v>
+        <v>0.3877219769793498</v>
       </c>
       <c r="J8">
-        <v>0.01365431903524517</v>
+        <v>0.03227681153245143</v>
       </c>
       <c r="K8">
-        <v>0.892966243088523</v>
+        <v>0.2769553876908617</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6588991220627136</v>
+        <v>1.137367859351528</v>
       </c>
       <c r="O8">
-        <v>0.7129993509520176</v>
+        <v>1.655263344282858</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.109809889425975</v>
+        <v>0.3579069966267809</v>
       </c>
       <c r="C9">
-        <v>0.1639674815196486</v>
+        <v>0.05745463186691779</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.312365477557293</v>
+        <v>0.8279125732416759</v>
       </c>
       <c r="F9">
-        <v>2.193721302287585</v>
+        <v>2.169995416441651</v>
       </c>
       <c r="G9">
-        <v>0.1817850953045834</v>
+        <v>0.3334196736700363</v>
       </c>
       <c r="H9">
-        <v>0.183367564864362</v>
+        <v>0.5108877501922251</v>
       </c>
       <c r="I9">
-        <v>0.1362553606751646</v>
+        <v>0.3766266874066524</v>
       </c>
       <c r="J9">
-        <v>0.01369481638054637</v>
+        <v>0.03160244103136556</v>
       </c>
       <c r="K9">
-        <v>1.184660890109825</v>
+        <v>0.3684152265126386</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6203965060254646</v>
+        <v>1.118519703032618</v>
       </c>
       <c r="O9">
-        <v>0.719235184631259</v>
+        <v>1.622266614021243</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.313980307945883</v>
+        <v>0.4210180854538521</v>
       </c>
       <c r="C10">
-        <v>0.1906950661918643</v>
+        <v>0.06585211208303576</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.558358314244785</v>
+        <v>0.8852921147820041</v>
       </c>
       <c r="F10">
-        <v>2.547834092107877</v>
+        <v>2.234995054008607</v>
       </c>
       <c r="G10">
-        <v>0.192312418266738</v>
+        <v>0.3302653314925621</v>
       </c>
       <c r="H10">
-        <v>0.1799653300977795</v>
+        <v>0.5046155834660198</v>
       </c>
       <c r="I10">
-        <v>0.1289208103815316</v>
+        <v>0.3695092668254478</v>
       </c>
       <c r="J10">
-        <v>0.01394791409898666</v>
+        <v>0.03119991076813378</v>
       </c>
       <c r="K10">
-        <v>1.399271235002573</v>
+        <v>0.4352034404555241</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5961511752770434</v>
+        <v>1.106514568480527</v>
       </c>
       <c r="O10">
-        <v>0.7349148990635257</v>
+        <v>1.602760892564561</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.407046925425647</v>
+        <v>0.4496671187364711</v>
       </c>
       <c r="C11">
-        <v>0.2028854835526914</v>
+        <v>0.06965222341472099</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.672584889689958</v>
+        <v>0.9118098613916885</v>
       </c>
       <c r="F11">
-        <v>2.714137220706561</v>
+        <v>2.265881789864608</v>
       </c>
       <c r="G11">
-        <v>0.1979288323983113</v>
+        <v>0.329096433263814</v>
       </c>
       <c r="H11">
-        <v>0.1788968939562565</v>
+        <v>0.5019885024373565</v>
       </c>
       <c r="I11">
-        <v>0.1261335997463569</v>
+        <v>0.3664962660664806</v>
       </c>
       <c r="J11">
-        <v>0.01411875873318635</v>
+        <v>0.03103702634121497</v>
       </c>
       <c r="K11">
-        <v>1.497091038589701</v>
+        <v>0.465493941352463</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5860727037206956</v>
+        <v>1.101452001800176</v>
       </c>
       <c r="O11">
-        <v>0.7447986753810767</v>
+        <v>1.594917992197693</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.442325460355079</v>
+        <v>0.4605065122975702</v>
       </c>
       <c r="C12">
-        <v>0.2075080012496642</v>
+        <v>0.0710883036311003</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.71622170042977</v>
+        <v>0.9219113833402304</v>
       </c>
       <c r="F12">
-        <v>2.777951728566705</v>
+        <v>2.27776778674442</v>
       </c>
       <c r="G12">
-        <v>0.2001847410641773</v>
+        <v>0.3286921575933945</v>
       </c>
       <c r="H12">
-        <v>0.1785655240444655</v>
+        <v>0.5010261974513739</v>
       </c>
       <c r="I12">
-        <v>0.1251623010677072</v>
+        <v>0.3653876723995353</v>
       </c>
       <c r="J12">
-        <v>0.01419211314675017</v>
+        <v>0.03097825997558346</v>
       </c>
       <c r="K12">
-        <v>1.534171172870401</v>
+        <v>0.4769504238270486</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5823995643984929</v>
+        <v>1.099592175008581</v>
       </c>
       <c r="O12">
-        <v>0.7489674955261592</v>
+        <v>1.592096432244716</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.434725832209466</v>
+        <v>0.4581724825241906</v>
       </c>
       <c r="C13">
-        <v>0.2065121519153621</v>
+        <v>0.07077914993180912</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.706805951372559</v>
+        <v>0.9197331777848916</v>
       </c>
       <c r="F13">
-        <v>2.76416931022473</v>
+        <v>2.275199475396676</v>
       </c>
       <c r="G13">
-        <v>0.1996929809558452</v>
+        <v>0.3287775178014556</v>
       </c>
       <c r="H13">
-        <v>0.1786335621113082</v>
+        <v>0.5012320011187725</v>
       </c>
       <c r="I13">
-        <v>0.1253676588731132</v>
+        <v>0.3656249877421907</v>
       </c>
       <c r="J13">
-        <v>0.01417591900684023</v>
+        <v>0.03099078665457</v>
       </c>
       <c r="K13">
-        <v>1.526183445045518</v>
+        <v>0.4744836930516954</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5831841549208008</v>
+        <v>1.099990176457574</v>
       </c>
       <c r="O13">
-        <v>0.7480502095588264</v>
+        <v>1.592697503201677</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.409948530782884</v>
+        <v>0.4505590738706076</v>
       </c>
       <c r="C14">
-        <v>0.2032656449673738</v>
+        <v>0.06977042991931626</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.676166978370816</v>
+        <v>0.9126397202140026</v>
       </c>
       <c r="F14">
-        <v>2.719369923359181</v>
+        <v>2.266855851041925</v>
       </c>
       <c r="G14">
-        <v>0.1981117797770011</v>
+        <v>0.3290624038480559</v>
       </c>
       <c r="H14">
-        <v>0.1788681387256545</v>
+        <v>0.5019086814500611</v>
       </c>
       <c r="I14">
-        <v>0.1260519730042269</v>
+        <v>0.3664044125075421</v>
       </c>
       <c r="J14">
-        <v>0.01412461621800887</v>
+        <v>0.03103213315541709</v>
       </c>
       <c r="K14">
-        <v>1.500140822427625</v>
+        <v>0.4664367549459598</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5857675998191922</v>
+        <v>1.101297845571814</v>
       </c>
       <c r="O14">
-        <v>0.7451329261861304</v>
+        <v>1.594682885862014</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.394776719437061</v>
+        <v>0.4458944006121328</v>
       </c>
       <c r="C15">
-        <v>0.2012779351050256</v>
+        <v>0.06915217486022129</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.657450917567587</v>
+        <v>0.9083025661763315</v>
       </c>
       <c r="F15">
-        <v>2.692041060475731</v>
+        <v>2.261769875240333</v>
       </c>
       <c r="G15">
-        <v>0.1971603719552277</v>
+        <v>0.3292419036222469</v>
       </c>
       <c r="H15">
-        <v>0.1790214923870508</v>
+        <v>0.5023274016939041</v>
       </c>
       <c r="I15">
-        <v>0.1264822539350092</v>
+        <v>0.3668860488271655</v>
       </c>
       <c r="J15">
-        <v>0.01409433951735295</v>
+        <v>0.0310578387914564</v>
       </c>
       <c r="K15">
-        <v>1.484194217430257</v>
+        <v>0.4615059463880016</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5873689075281376</v>
+        <v>1.102106285371555</v>
       </c>
       <c r="O15">
-        <v>0.7434024294241368</v>
+        <v>1.595918319351355</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.307902741523492</v>
+        <v>0.4191445285899817</v>
       </c>
       <c r="C16">
-        <v>0.1898991760618145</v>
+        <v>0.06560335842343079</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.550944059173958</v>
+        <v>0.8835674853171014</v>
       </c>
       <c r="F16">
-        <v>2.537078188390865</v>
+        <v>2.233003083765453</v>
       </c>
       <c r="G16">
-        <v>0.1919628716415502</v>
+        <v>0.3303470839918461</v>
       </c>
       <c r="H16">
-        <v>0.1800451603960767</v>
+        <v>0.5047918196129544</v>
       </c>
       <c r="I16">
-        <v>0.129114449015832</v>
+        <v>0.3697106999455428</v>
       </c>
       <c r="J16">
-        <v>0.01393792437415797</v>
+        <v>0.03121096317666172</v>
       </c>
       <c r="K16">
-        <v>1.392883208259263</v>
+        <v>0.4332219803228554</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5968295182353387</v>
+        <v>1.106853434937548</v>
       </c>
       <c r="O16">
-        <v>0.7343268851481355</v>
+        <v>1.603294196048054</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.254662905983508</v>
+        <v>0.4027183707169399</v>
       </c>
       <c r="C17">
-        <v>0.1829279960967511</v>
+        <v>0.06342111530904049</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.486233108439023</v>
+        <v>0.8684997901390688</v>
       </c>
       <c r="F17">
-        <v>2.443410364508878</v>
+        <v>2.2156934086061</v>
       </c>
       <c r="G17">
-        <v>0.188993288004589</v>
+        <v>0.331093288178586</v>
       </c>
       <c r="H17">
-        <v>0.1807988712074504</v>
+        <v>0.5063615792845866</v>
       </c>
       <c r="I17">
-        <v>0.1308734824998421</v>
+        <v>0.3715011281185703</v>
       </c>
       <c r="J17">
-        <v>0.01385668399091244</v>
+        <v>0.03131008502610477</v>
       </c>
       <c r="K17">
-        <v>1.336923167033063</v>
+        <v>0.4158466937739718</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.602881424544556</v>
+        <v>1.109867708828602</v>
       </c>
       <c r="O17">
-        <v>0.7294849608475005</v>
+        <v>1.608083106572252</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.22405791169615</v>
+        <v>0.3932648230400844</v>
       </c>
       <c r="C18">
-        <v>0.1789212509620768</v>
+        <v>0.0621640737773248</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.449228654721324</v>
+        <v>0.8598723550136782</v>
       </c>
       <c r="F18">
-        <v>2.390020243785315</v>
+        <v>2.205861385280116</v>
       </c>
       <c r="G18">
-        <v>0.1873625045848826</v>
+        <v>0.3315475185617558</v>
       </c>
       <c r="H18">
-        <v>0.1812772212547742</v>
+        <v>0.5072857511361164</v>
       </c>
       <c r="I18">
-        <v>0.1319366079521487</v>
+        <v>0.372552086811023</v>
       </c>
       <c r="J18">
-        <v>0.01381515879853623</v>
+        <v>0.03136900097036488</v>
       </c>
       <c r="K18">
-        <v>1.304753887725127</v>
+        <v>0.405844288745584</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6064513998269661</v>
+        <v>1.111638964036594</v>
       </c>
       <c r="O18">
-        <v>0.7269570095163687</v>
+        <v>1.610934529939115</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.213698265986352</v>
+        <v>0.3900630632513753</v>
       </c>
       <c r="C19">
-        <v>0.1775650840759653</v>
+        <v>0.06173814160308666</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.436735226650001</v>
+        <v>0.8569579676305352</v>
       </c>
       <c r="F19">
-        <v>2.372023994212753</v>
+        <v>2.202553725998754</v>
       </c>
       <c r="G19">
-        <v>0.1868233189786253</v>
+        <v>0.3317056094451516</v>
       </c>
       <c r="H19">
-        <v>0.1814467563481656</v>
+        <v>0.507602316256957</v>
       </c>
       <c r="I19">
-        <v>0.1323052356540675</v>
+        <v>0.3729115548130935</v>
       </c>
       <c r="J19">
-        <v>0.0138019735506596</v>
+        <v>0.03138927568543082</v>
       </c>
       <c r="K19">
-        <v>1.293864622989531</v>
+        <v>0.4024561897742558</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6076752359388067</v>
+        <v>1.112245127526649</v>
       </c>
       <c r="O19">
-        <v>0.7261443329368831</v>
+        <v>1.611916620871895</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.26032853852621</v>
+        <v>0.4044675535159001</v>
       </c>
       <c r="C20">
-        <v>0.1836697789781709</v>
+        <v>0.06365361318242435</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.493099057450635</v>
+        <v>0.8700997242738424</v>
       </c>
       <c r="F20">
-        <v>2.453330632994181</v>
+        <v>2.217523212651187</v>
       </c>
       <c r="G20">
-        <v>0.1893013399217196</v>
+        <v>0.3310112618273067</v>
       </c>
       <c r="H20">
-        <v>0.1807139668202495</v>
+        <v>0.5061922725576835</v>
       </c>
       <c r="I20">
-        <v>0.130680876778495</v>
+        <v>0.3713083445244063</v>
       </c>
       <c r="J20">
-        <v>0.01386478921984668</v>
+        <v>0.03129933627199932</v>
       </c>
       <c r="K20">
-        <v>1.342878330961355</v>
+        <v>0.4176972176102822</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6022279227115348</v>
+        <v>1.109542951051452</v>
       </c>
       <c r="O20">
-        <v>0.7299735797926274</v>
+        <v>1.607563281429194</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.4172251652368</v>
+        <v>0.4527955762858937</v>
       </c>
       <c r="C21">
-        <v>0.204219038342913</v>
+        <v>0.07006679578270791</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.685155627213234</v>
+        <v>0.9147216163427743</v>
       </c>
       <c r="F21">
-        <v>2.732505066986477</v>
+        <v>2.269301420429883</v>
       </c>
       <c r="G21">
-        <v>0.1985726293443975</v>
+        <v>0.3289776839667411</v>
       </c>
       <c r="H21">
-        <v>0.1787972148339207</v>
+        <v>0.5017090416855225</v>
       </c>
       <c r="I21">
-        <v>0.1258486465252204</v>
+        <v>0.366174597838107</v>
       </c>
       <c r="J21">
-        <v>0.01413944467843109</v>
+        <v>0.03101990954456291</v>
       </c>
       <c r="K21">
-        <v>1.50778905772313</v>
+        <v>0.4688007175938935</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.585004833896356</v>
+        <v>1.100912198012658</v>
       </c>
       <c r="O21">
-        <v>0.7459779870986694</v>
+        <v>1.594095702263346</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.519982114662923</v>
+        <v>0.484325785537095</v>
       </c>
       <c r="C22">
-        <v>0.2176866201075711</v>
+        <v>0.07424101479601575</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.812925815388908</v>
+        <v>0.944233355759593</v>
       </c>
       <c r="F22">
-        <v>2.919899798858808</v>
+        <v>2.304248274976942</v>
       </c>
       <c r="G22">
-        <v>0.2053896116177754</v>
+        <v>0.3278722679414656</v>
       </c>
       <c r="H22">
-        <v>0.1779735246299126</v>
+        <v>0.4989685017983021</v>
       </c>
       <c r="I22">
-        <v>0.1231836793162557</v>
+        <v>0.3630080628757959</v>
       </c>
       <c r="J22">
-        <v>0.0143697564044416</v>
+        <v>0.03085427816333031</v>
       </c>
       <c r="K22">
-        <v>1.615794020753185</v>
+        <v>0.5021186357054432</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5745875235910418</v>
+        <v>1.095605213194773</v>
       </c>
       <c r="O22">
-        <v>0.7589367945490864</v>
+        <v>1.586158809575096</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.465115827947187</v>
+        <v>0.4675027687487727</v>
       </c>
       <c r="C23">
-        <v>0.2104946924996227</v>
+        <v>0.0720147498663124</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.744509668312887</v>
+        <v>0.9284504480661298</v>
       </c>
       <c r="F23">
-        <v>2.819400365015611</v>
+        <v>2.285495101341127</v>
       </c>
       <c r="G23">
-        <v>0.2016784123312831</v>
+        <v>0.328441750774239</v>
       </c>
       <c r="H23">
-        <v>0.1783723874839183</v>
+        <v>0.5004138417742681</v>
       </c>
       <c r="I23">
-        <v>0.1245591022116344</v>
+        <v>0.3646808242162543</v>
       </c>
       <c r="J23">
-        <v>0.01424195893283198</v>
+        <v>0.03094112230176904</v>
       </c>
       <c r="K23">
-        <v>1.558125431227069</v>
+        <v>0.484343885363046</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.580068376619721</v>
+        <v>1.098407137099173</v>
       </c>
       <c r="O23">
-        <v>0.7517811602184281</v>
+        <v>1.590315665335638</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.257767096467063</v>
+        <v>0.4036767788542193</v>
       </c>
       <c r="C24">
-        <v>0.183334415701907</v>
+        <v>0.06354850849135119</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.489994346436262</v>
+        <v>0.86937628446411</v>
       </c>
       <c r="F24">
-        <v>2.448844251097412</v>
+        <v>2.216695585903409</v>
       </c>
       <c r="G24">
-        <v>0.1891618322196109</v>
+        <v>0.3310482673657731</v>
       </c>
       <c r="H24">
-        <v>0.1807522121523988</v>
+        <v>0.5062687485453594</v>
       </c>
       <c r="I24">
-        <v>0.1307677927617181</v>
+        <v>0.3713954346529196</v>
       </c>
       <c r="J24">
-        <v>0.01386110875666091</v>
+        <v>0.03130418977425187</v>
       </c>
       <c r="K24">
-        <v>1.340185993097691</v>
+        <v>0.4168606366044116</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6025230890208135</v>
+        <v>1.10968965470645</v>
       </c>
       <c r="O24">
-        <v>0.7297518808876191</v>
+        <v>1.607797988457236</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.034732001969502</v>
+        <v>0.334616343092847</v>
       </c>
       <c r="C25">
-        <v>0.1541426654300153</v>
+        <v>0.05434494560125813</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.223542169810528</v>
+        <v>0.8071497108568053</v>
       </c>
       <c r="F25">
-        <v>2.067387208587618</v>
+        <v>2.147224960260019</v>
       </c>
       <c r="G25">
-        <v>0.1785785034694243</v>
+        <v>0.3348164556981601</v>
       </c>
       <c r="H25">
-        <v>0.1850183528940974</v>
+        <v>0.5133981241133938</v>
       </c>
       <c r="I25">
-        <v>0.1394108728381376</v>
+        <v>0.3794467305635809</v>
       </c>
       <c r="J25">
-        <v>0.01364694746116157</v>
+        <v>0.03176857582461778</v>
       </c>
       <c r="K25">
-        <v>1.105735284534546</v>
+        <v>0.343742709091913</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6301263307895582</v>
+        <v>1.12329462246003</v>
       </c>
       <c r="O25">
-        <v>0.7157087746100359</v>
+        <v>1.630361947177391</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.283596088079122</v>
+        <v>0.8707071846955898</v>
       </c>
       <c r="C2">
-        <v>0.04750807013593317</v>
+        <v>0.1326793031231546</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7626029043482419</v>
+        <v>1.032700770978394</v>
       </c>
       <c r="F2">
-        <v>2.100123961954324</v>
+        <v>1.79920335845587</v>
       </c>
       <c r="G2">
-        <v>0.3384098322087894</v>
+        <v>0.1729516690337221</v>
       </c>
       <c r="H2">
-        <v>0.5193485153305204</v>
+        <v>0.1894754772938612</v>
       </c>
       <c r="I2">
-        <v>0.3860694594142551</v>
+        <v>0.1472737416973064</v>
       </c>
       <c r="J2">
-        <v>0.03217290880991897</v>
+        <v>0.01363653066491821</v>
       </c>
       <c r="K2">
-        <v>0.2896375603817773</v>
+        <v>0.9332753230863489</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.134550080575771</v>
+        <v>0.6531369869607104</v>
       </c>
       <c r="O2">
-        <v>1.650157203335866</v>
+        <v>0.712693677370865</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2489195046054533</v>
+        <v>0.7595148765127817</v>
       </c>
       <c r="C3">
-        <v>0.04283765755388913</v>
+        <v>0.1181260055736999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7331989198385997</v>
+        <v>0.9059878461140585</v>
       </c>
       <c r="F3">
-        <v>2.070717013394471</v>
+        <v>1.624014211491087</v>
       </c>
       <c r="G3">
-        <v>0.3413539821906468</v>
+        <v>0.1703313357574601</v>
       </c>
       <c r="H3">
-        <v>0.5238190168285541</v>
+        <v>0.1932502684174153</v>
       </c>
       <c r="I3">
-        <v>0.3909906325850141</v>
+        <v>0.1534568060163153</v>
       </c>
       <c r="J3">
-        <v>0.03248577531753405</v>
+        <v>0.01371136569250631</v>
       </c>
       <c r="K3">
-        <v>0.2528093121956942</v>
+        <v>0.8163318696790043</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.142952505837698</v>
+        <v>0.6703044458640761</v>
       </c>
       <c r="O3">
-        <v>1.665554202443033</v>
+        <v>0.7147446492744223</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2275817205730561</v>
+        <v>0.6911820151249799</v>
       </c>
       <c r="C4">
-        <v>0.03995203726985608</v>
+        <v>0.1091788906565796</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.715530698613378</v>
+        <v>0.8292660445970768</v>
       </c>
       <c r="F4">
-        <v>2.053897623029272</v>
+        <v>1.519277503764656</v>
       </c>
       <c r="G4">
-        <v>0.3434120902637616</v>
+        <v>0.1692622215100812</v>
       </c>
       <c r="H4">
-        <v>0.5267800823144739</v>
+        <v>0.1959193876070486</v>
       </c>
       <c r="I4">
-        <v>0.3942256303655753</v>
+        <v>0.1576495385620547</v>
       </c>
       <c r="J4">
-        <v>0.03269701065143948</v>
+        <v>0.01379464947492792</v>
       </c>
       <c r="K4">
-        <v>0.2301202447741559</v>
+        <v>0.7444461136769149</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.148494373019808</v>
+        <v>0.6815892200308156</v>
       </c>
       <c r="O4">
-        <v>1.675984465236382</v>
+        <v>0.7178770284242688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2188753903838005</v>
+        <v>0.6633148871938488</v>
       </c>
       <c r="C5">
-        <v>0.03877166957762768</v>
+        <v>0.1055290223585672</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7084277361718279</v>
+        <v>0.7982439361378368</v>
       </c>
       <c r="F5">
-        <v>2.047354286775615</v>
+        <v>1.477252149791951</v>
       </c>
       <c r="G5">
-        <v>0.3443136614866802</v>
+        <v>0.1689554149738157</v>
       </c>
       <c r="H5">
-        <v>0.5280411194799655</v>
+        <v>0.1970925141106221</v>
       </c>
       <c r="I5">
-        <v>0.3955975457973313</v>
+        <v>0.1594541875037638</v>
       </c>
       <c r="J5">
-        <v>0.03278789822358164</v>
+        <v>0.01383754557848427</v>
       </c>
       <c r="K5">
-        <v>0.2208556722882093</v>
+        <v>0.7151250964641207</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.15084907533182</v>
+        <v>0.6863703454486689</v>
       </c>
       <c r="O5">
-        <v>1.680480278157845</v>
+        <v>0.7196038145114159</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.21742906395761</v>
+        <v>0.6586861463408695</v>
       </c>
       <c r="C6">
-        <v>0.03857540330402287</v>
+        <v>0.1049227044293275</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7072541501935063</v>
+        <v>0.793106579052548</v>
       </c>
       <c r="F6">
-        <v>2.046286529208857</v>
+        <v>1.470311899579173</v>
       </c>
       <c r="G6">
-        <v>0.3444671616866444</v>
+        <v>0.1689120583354082</v>
       </c>
       <c r="H6">
-        <v>0.5282537988025169</v>
+        <v>0.1972923883294797</v>
       </c>
       <c r="I6">
-        <v>0.3958285894659639</v>
+        <v>0.1597595490996326</v>
       </c>
       <c r="J6">
-        <v>0.03280328027920909</v>
+        <v>0.01384519724101452</v>
       </c>
       <c r="K6">
-        <v>0.2193161921047562</v>
+        <v>0.7102545558122415</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.151245893996965</v>
+        <v>0.6871751399569632</v>
       </c>
       <c r="O6">
-        <v>1.681241621752861</v>
+        <v>0.7199171570605785</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2274643477257143</v>
+        <v>0.6908062813933498</v>
       </c>
       <c r="C7">
-        <v>0.03993613636667703</v>
+        <v>0.1091296840959615</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7154345129945625</v>
+        <v>0.8288467241981579</v>
       </c>
       <c r="F7">
-        <v>2.053808119623113</v>
+        <v>1.518708151841892</v>
       </c>
       <c r="G7">
-        <v>0.343423994703663</v>
+        <v>0.1692575708812996</v>
       </c>
       <c r="H7">
-        <v>0.526796868892653</v>
+        <v>0.1959348666223946</v>
       </c>
       <c r="I7">
-        <v>0.3942439153979986</v>
+        <v>0.1576734922960874</v>
       </c>
       <c r="J7">
-        <v>0.03269821693293729</v>
+        <v>0.01379519227303128</v>
       </c>
       <c r="K7">
-        <v>0.2299953739826606</v>
+        <v>0.7440507975736921</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.148525739118654</v>
+        <v>0.6816529669508498</v>
       </c>
       <c r="O7">
-        <v>1.676044103926856</v>
+        <v>0.7178985197966483</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2716495524542495</v>
+        <v>0.8323769847310416</v>
       </c>
       <c r="C8">
-        <v>0.04590147830609226</v>
+        <v>0.1276630511950714</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7523842559941158</v>
+        <v>0.9887678272045264</v>
       </c>
       <c r="F8">
-        <v>2.089727624898828</v>
+        <v>1.738176003538072</v>
       </c>
       <c r="G8">
-        <v>0.339372954736362</v>
+        <v>0.1719319152576873</v>
       </c>
       <c r="H8">
-        <v>0.5208450947764049</v>
+        <v>0.1907022976575803</v>
       </c>
       <c r="I8">
-        <v>0.3877219769793498</v>
+        <v>0.1493212094399823</v>
       </c>
       <c r="J8">
-        <v>0.03227681153245143</v>
+        <v>0.0136543190353251</v>
       </c>
       <c r="K8">
-        <v>0.2769553876908617</v>
+        <v>0.8929662430884946</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.137367859351528</v>
+        <v>0.6588991220626639</v>
       </c>
       <c r="O8">
-        <v>1.655263344282858</v>
+        <v>0.7129993509520034</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3579069966267809</v>
+        <v>1.10980988942589</v>
       </c>
       <c r="C9">
-        <v>0.05745463186691779</v>
+        <v>0.1639674815193928</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8279125732416759</v>
+        <v>1.312365477557307</v>
       </c>
       <c r="F9">
-        <v>2.169995416441651</v>
+        <v>2.193721302287585</v>
       </c>
       <c r="G9">
-        <v>0.3334196736700363</v>
+        <v>0.1817850953045905</v>
       </c>
       <c r="H9">
-        <v>0.5108877501922251</v>
+        <v>0.183367564864362</v>
       </c>
       <c r="I9">
-        <v>0.3766266874066524</v>
+        <v>0.1362553606751629</v>
       </c>
       <c r="J9">
-        <v>0.03160244103136556</v>
+        <v>0.01369481638060144</v>
       </c>
       <c r="K9">
-        <v>0.3684152265126386</v>
+        <v>1.184660890109711</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.118519703032618</v>
+        <v>0.6203965060254575</v>
       </c>
       <c r="O9">
-        <v>1.622266614021243</v>
+        <v>0.7192351846312022</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4210180854538521</v>
+        <v>1.313980307945911</v>
       </c>
       <c r="C10">
-        <v>0.06585211208303576</v>
+        <v>0.1906950661918501</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8852921147820041</v>
+        <v>1.558358314244785</v>
       </c>
       <c r="F10">
-        <v>2.234995054008607</v>
+        <v>2.547834092107877</v>
       </c>
       <c r="G10">
-        <v>0.3302653314925621</v>
+        <v>0.192312418266738</v>
       </c>
       <c r="H10">
-        <v>0.5046155834660198</v>
+        <v>0.1799653300976587</v>
       </c>
       <c r="I10">
-        <v>0.3695092668254478</v>
+        <v>0.1289208103815316</v>
       </c>
       <c r="J10">
-        <v>0.03119991076813378</v>
+        <v>0.01394791409904883</v>
       </c>
       <c r="K10">
-        <v>0.4352034404555241</v>
+        <v>1.399271235002601</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.106514568480527</v>
+        <v>0.5961511752770434</v>
       </c>
       <c r="O10">
-        <v>1.602760892564561</v>
+        <v>0.7349148990635399</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4496671187364711</v>
+        <v>1.407046925425647</v>
       </c>
       <c r="C11">
-        <v>0.06965222341472099</v>
+        <v>0.2028854835527056</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9118098613916885</v>
+        <v>1.672584889689972</v>
       </c>
       <c r="F11">
-        <v>2.265881789864608</v>
+        <v>2.714137220706561</v>
       </c>
       <c r="G11">
-        <v>0.329096433263814</v>
+        <v>0.1979288323983681</v>
       </c>
       <c r="H11">
-        <v>0.5019885024373565</v>
+        <v>0.1788968939562494</v>
       </c>
       <c r="I11">
-        <v>0.3664962660664806</v>
+        <v>0.1261335997463497</v>
       </c>
       <c r="J11">
-        <v>0.03103702634121497</v>
+        <v>0.01411875873312951</v>
       </c>
       <c r="K11">
-        <v>0.465493941352463</v>
+        <v>1.497091038589559</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.101452001800176</v>
+        <v>0.5860727037207454</v>
       </c>
       <c r="O11">
-        <v>1.594917992197693</v>
+        <v>0.7447986753810056</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4605065122975702</v>
+        <v>1.442325460354965</v>
       </c>
       <c r="C12">
-        <v>0.0710883036311003</v>
+        <v>0.20750800124938</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9219113833402304</v>
+        <v>1.71622170042977</v>
       </c>
       <c r="F12">
-        <v>2.27776778674442</v>
+        <v>2.777951728566677</v>
       </c>
       <c r="G12">
-        <v>0.3286921575933945</v>
+        <v>0.200184741064156</v>
       </c>
       <c r="H12">
-        <v>0.5010261974513739</v>
+        <v>0.1785655240444584</v>
       </c>
       <c r="I12">
-        <v>0.3653876723995353</v>
+        <v>0.1251623010677001</v>
       </c>
       <c r="J12">
-        <v>0.03097825997558346</v>
+        <v>0.01419211314684787</v>
       </c>
       <c r="K12">
-        <v>0.4769504238270486</v>
+        <v>1.534171172870401</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.099592175008581</v>
+        <v>0.5823995643984716</v>
       </c>
       <c r="O12">
-        <v>1.592096432244716</v>
+        <v>0.7489674955261449</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4581724825241906</v>
+        <v>1.434725832209693</v>
       </c>
       <c r="C13">
-        <v>0.07077914993180912</v>
+        <v>0.2065121519158311</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9197331777848916</v>
+        <v>1.70680595137253</v>
       </c>
       <c r="F13">
-        <v>2.275199475396676</v>
+        <v>2.76416931022473</v>
       </c>
       <c r="G13">
-        <v>0.3287775178014556</v>
+        <v>0.1996929809558452</v>
       </c>
       <c r="H13">
-        <v>0.5012320011187725</v>
+        <v>0.1786335621114219</v>
       </c>
       <c r="I13">
-        <v>0.3656249877421907</v>
+        <v>0.125367658873099</v>
       </c>
       <c r="J13">
-        <v>0.03099078665457</v>
+        <v>0.01417591900672477</v>
       </c>
       <c r="K13">
-        <v>0.4744836930516954</v>
+        <v>1.52618344504566</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.099990176457574</v>
+        <v>0.5831841549208079</v>
       </c>
       <c r="O13">
-        <v>1.592697503201677</v>
+        <v>0.7480502095588832</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4505590738706076</v>
+        <v>1.409948530782998</v>
       </c>
       <c r="C14">
-        <v>0.06977042991931626</v>
+        <v>0.2032656449675301</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9126397202140026</v>
+        <v>1.676166978370802</v>
       </c>
       <c r="F14">
-        <v>2.266855851041925</v>
+        <v>2.719369923359153</v>
       </c>
       <c r="G14">
-        <v>0.3290624038480559</v>
+        <v>0.1981117797769869</v>
       </c>
       <c r="H14">
-        <v>0.5019086814500611</v>
+        <v>0.1788681387256403</v>
       </c>
       <c r="I14">
-        <v>0.3664044125075421</v>
+        <v>0.1260519730042375</v>
       </c>
       <c r="J14">
-        <v>0.03103213315541709</v>
+        <v>0.01412461621801064</v>
       </c>
       <c r="K14">
-        <v>0.4664367549459598</v>
+        <v>1.500140822427568</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.101297845571814</v>
+        <v>0.585767599819178</v>
       </c>
       <c r="O14">
-        <v>1.594682885862014</v>
+        <v>0.7451329261860593</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4458944006121328</v>
+        <v>1.394776719437345</v>
       </c>
       <c r="C15">
-        <v>0.06915217486022129</v>
+        <v>0.2012779351051961</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9083025661763315</v>
+        <v>1.657450917567573</v>
       </c>
       <c r="F15">
-        <v>2.261769875240333</v>
+        <v>2.692041060475702</v>
       </c>
       <c r="G15">
-        <v>0.3292419036222469</v>
+        <v>0.197160371955178</v>
       </c>
       <c r="H15">
-        <v>0.5023274016939041</v>
+        <v>0.1790214923870508</v>
       </c>
       <c r="I15">
-        <v>0.3668860488271655</v>
+        <v>0.1264822539350199</v>
       </c>
       <c r="J15">
-        <v>0.0310578387914564</v>
+        <v>0.01409433951740802</v>
       </c>
       <c r="K15">
-        <v>0.4615059463880016</v>
+        <v>1.484194217430144</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.102106285371555</v>
+        <v>0.5873689075281305</v>
       </c>
       <c r="O15">
-        <v>1.595918319351355</v>
+        <v>0.7434024294241368</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4191445285899817</v>
+        <v>1.307902741523378</v>
       </c>
       <c r="C16">
-        <v>0.06560335842343079</v>
+        <v>0.1898991760618145</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8835674853171014</v>
+        <v>1.550944059173958</v>
       </c>
       <c r="F16">
-        <v>2.233003083765453</v>
+        <v>2.537078188390836</v>
       </c>
       <c r="G16">
-        <v>0.3303470839918461</v>
+        <v>0.1919628716415502</v>
       </c>
       <c r="H16">
-        <v>0.5047918196129544</v>
+        <v>0.1800451603960624</v>
       </c>
       <c r="I16">
-        <v>0.3697106999455428</v>
+        <v>0.129114449015832</v>
       </c>
       <c r="J16">
-        <v>0.03121096317666172</v>
+        <v>0.01393792437403185</v>
       </c>
       <c r="K16">
-        <v>0.4332219803228554</v>
+        <v>1.392883208259263</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.106853434937548</v>
+        <v>0.5968295182353316</v>
       </c>
       <c r="O16">
-        <v>1.603294196048054</v>
+        <v>0.7343268851481923</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4027183707169399</v>
+        <v>1.25466290598365</v>
       </c>
       <c r="C17">
-        <v>0.06342111530904049</v>
+        <v>0.1829279960972201</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8684997901390688</v>
+        <v>1.486233108439009</v>
       </c>
       <c r="F17">
-        <v>2.2156934086061</v>
+        <v>2.443410364508907</v>
       </c>
       <c r="G17">
-        <v>0.331093288178586</v>
+        <v>0.1889932880045677</v>
       </c>
       <c r="H17">
-        <v>0.5063615792845866</v>
+        <v>0.1807988712075641</v>
       </c>
       <c r="I17">
-        <v>0.3715011281185703</v>
+        <v>0.1308734824998563</v>
       </c>
       <c r="J17">
-        <v>0.03131008502610477</v>
+        <v>0.01385668399091955</v>
       </c>
       <c r="K17">
-        <v>0.4158466937739718</v>
+        <v>1.336923167033092</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.109867708828602</v>
+        <v>0.602881424544556</v>
       </c>
       <c r="O17">
-        <v>1.608083106572252</v>
+        <v>0.7294849608474863</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3932648230400844</v>
+        <v>1.224057911696093</v>
       </c>
       <c r="C18">
-        <v>0.0621640737773248</v>
+        <v>0.1789212509616647</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8598723550136782</v>
+        <v>1.449228654721381</v>
       </c>
       <c r="F18">
-        <v>2.205861385280116</v>
+        <v>2.390020243785315</v>
       </c>
       <c r="G18">
-        <v>0.3315475185617558</v>
+        <v>0.1873625045848115</v>
       </c>
       <c r="H18">
-        <v>0.5072857511361164</v>
+        <v>0.1812772212547742</v>
       </c>
       <c r="I18">
-        <v>0.372552086811023</v>
+        <v>0.1319366079521469</v>
       </c>
       <c r="J18">
-        <v>0.03136900097036488</v>
+        <v>0.01381515879842432</v>
       </c>
       <c r="K18">
-        <v>0.405844288745584</v>
+        <v>1.304753887725013</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.111638964036594</v>
+        <v>0.6064513998269589</v>
       </c>
       <c r="O18">
-        <v>1.610934529939115</v>
+        <v>0.7269570095163402</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3900630632513753</v>
+        <v>1.213698265986437</v>
       </c>
       <c r="C19">
-        <v>0.06173814160308666</v>
+        <v>0.1775650840760079</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8569579676305352</v>
+        <v>1.436735226650029</v>
       </c>
       <c r="F19">
-        <v>2.202553725998754</v>
+        <v>2.372023994212739</v>
       </c>
       <c r="G19">
-        <v>0.3317056094451516</v>
+        <v>0.1868233189786821</v>
       </c>
       <c r="H19">
-        <v>0.507602316256957</v>
+        <v>0.1814467563481514</v>
       </c>
       <c r="I19">
-        <v>0.3729115548130935</v>
+        <v>0.1323052356540657</v>
       </c>
       <c r="J19">
-        <v>0.03138927568543082</v>
+        <v>0.01380197355060098</v>
       </c>
       <c r="K19">
-        <v>0.4024561897742558</v>
+        <v>1.293864622989588</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.112245127526649</v>
+        <v>0.6076752359387996</v>
       </c>
       <c r="O19">
-        <v>1.611916620871895</v>
+        <v>0.7261443329369257</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4044675535159001</v>
+        <v>1.260328538526238</v>
       </c>
       <c r="C20">
-        <v>0.06365361318242435</v>
+        <v>0.1836697789781709</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8700997242738424</v>
+        <v>1.493099057450635</v>
       </c>
       <c r="F20">
-        <v>2.217523212651187</v>
+        <v>2.453330632994181</v>
       </c>
       <c r="G20">
-        <v>0.3310112618273067</v>
+        <v>0.1893013399216628</v>
       </c>
       <c r="H20">
-        <v>0.5061922725576835</v>
+        <v>0.1807139668202495</v>
       </c>
       <c r="I20">
-        <v>0.3713083445244063</v>
+        <v>0.130680876778495</v>
       </c>
       <c r="J20">
-        <v>0.03129933627199932</v>
+        <v>0.0138647892198982</v>
       </c>
       <c r="K20">
-        <v>0.4176972176102822</v>
+        <v>1.342878330961327</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.109542951051452</v>
+        <v>0.6022279227114851</v>
       </c>
       <c r="O20">
-        <v>1.607563281429194</v>
+        <v>0.7299735797926417</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4527955762858937</v>
+        <v>1.4172251652368</v>
       </c>
       <c r="C21">
-        <v>0.07006679578270791</v>
+        <v>0.2042190383426288</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9147216163427743</v>
+        <v>1.685155627213263</v>
       </c>
       <c r="F21">
-        <v>2.269301420429883</v>
+        <v>2.732505066986448</v>
       </c>
       <c r="G21">
-        <v>0.3289776839667411</v>
+        <v>0.1985726293443975</v>
       </c>
       <c r="H21">
-        <v>0.5017090416855225</v>
+        <v>0.1787972148338</v>
       </c>
       <c r="I21">
-        <v>0.366174597838107</v>
+        <v>0.1258486465252169</v>
       </c>
       <c r="J21">
-        <v>0.03101990954456291</v>
+        <v>0.01413944467847372</v>
       </c>
       <c r="K21">
-        <v>0.4688007175938935</v>
+        <v>1.507789057723073</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.100912198012658</v>
+        <v>0.5850048338963489</v>
       </c>
       <c r="O21">
-        <v>1.594095702263346</v>
+        <v>0.7459779870986694</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.484325785537095</v>
+        <v>1.519982114662923</v>
       </c>
       <c r="C22">
-        <v>0.07424101479601575</v>
+        <v>0.2176866201078269</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.944233355759593</v>
+        <v>1.81292581538888</v>
       </c>
       <c r="F22">
-        <v>2.304248274976942</v>
+        <v>2.919899798858808</v>
       </c>
       <c r="G22">
-        <v>0.3278722679414656</v>
+        <v>0.2053896116177825</v>
       </c>
       <c r="H22">
-        <v>0.4989685017983021</v>
+        <v>0.1779735246299126</v>
       </c>
       <c r="I22">
-        <v>0.3630080628757959</v>
+        <v>0.1231836793162415</v>
       </c>
       <c r="J22">
-        <v>0.03085427816333031</v>
+        <v>0.01436975640449489</v>
       </c>
       <c r="K22">
-        <v>0.5021186357054432</v>
+        <v>1.615794020753071</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.095605213194773</v>
+        <v>0.5745875235909779</v>
       </c>
       <c r="O22">
-        <v>1.586158809575096</v>
+        <v>0.7589367945491148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4675027687487727</v>
+        <v>1.465115827947216</v>
       </c>
       <c r="C23">
-        <v>0.0720147498663124</v>
+        <v>0.2104946924998359</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9284504480661298</v>
+        <v>1.744509668312901</v>
       </c>
       <c r="F23">
-        <v>2.285495101341127</v>
+        <v>2.819400365015582</v>
       </c>
       <c r="G23">
-        <v>0.328441750774239</v>
+        <v>0.20167841233134</v>
       </c>
       <c r="H23">
-        <v>0.5004138417742681</v>
+        <v>0.1783723874839183</v>
       </c>
       <c r="I23">
-        <v>0.3646808242162543</v>
+        <v>0.1245591022116521</v>
       </c>
       <c r="J23">
-        <v>0.03094112230176904</v>
+        <v>0.01424195893284619</v>
       </c>
       <c r="K23">
-        <v>0.484343885363046</v>
+        <v>1.558125431227097</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.098407137099173</v>
+        <v>0.5800683766197281</v>
       </c>
       <c r="O23">
-        <v>1.590315665335638</v>
+        <v>0.7517811602184423</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4036767788542193</v>
+        <v>1.257767096467092</v>
       </c>
       <c r="C24">
-        <v>0.06354850849135119</v>
+        <v>0.183334415701907</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.86937628446411</v>
+        <v>1.489994346436205</v>
       </c>
       <c r="F24">
-        <v>2.216695585903409</v>
+        <v>2.448844251097412</v>
       </c>
       <c r="G24">
-        <v>0.3310482673657731</v>
+        <v>0.1891618322196109</v>
       </c>
       <c r="H24">
-        <v>0.5062687485453594</v>
+        <v>0.1807522121524059</v>
       </c>
       <c r="I24">
-        <v>0.3713954346529196</v>
+        <v>0.1307677927617252</v>
       </c>
       <c r="J24">
-        <v>0.03130418977425187</v>
+        <v>0.01386110875670177</v>
       </c>
       <c r="K24">
-        <v>0.4168606366044116</v>
+        <v>1.340185993097634</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.10968965470645</v>
+        <v>0.6025230890207993</v>
       </c>
       <c r="O24">
-        <v>1.607797988457236</v>
+        <v>0.7297518808875481</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.334616343092847</v>
+        <v>1.034732001969587</v>
       </c>
       <c r="C25">
-        <v>0.05434494560125813</v>
+        <v>0.1541426654300579</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8071497108568053</v>
+        <v>1.223542169810528</v>
       </c>
       <c r="F25">
-        <v>2.147224960260019</v>
+        <v>2.067387208587618</v>
       </c>
       <c r="G25">
-        <v>0.3348164556981601</v>
+        <v>0.178578503469474</v>
       </c>
       <c r="H25">
-        <v>0.5133981241133938</v>
+        <v>0.1850183528940903</v>
       </c>
       <c r="I25">
-        <v>0.3794467305635809</v>
+        <v>0.1394108728381322</v>
       </c>
       <c r="J25">
-        <v>0.03176857582461778</v>
+        <v>0.01364694746114914</v>
       </c>
       <c r="K25">
-        <v>0.343742709091913</v>
+        <v>1.105735284534461</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.12329462246003</v>
+        <v>0.6301263307895368</v>
       </c>
       <c r="O25">
-        <v>1.630361947177391</v>
+        <v>0.7157087746099648</v>
       </c>
     </row>
   </sheetData>
